--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">déconseillé obsolète</t>
   </si>
   <si>
-    <t xml:space="preserve">Device-width</t>
+    <t xml:space="preserve">suppression</t>
   </si>
   <si>
     <t xml:space="preserve">constant(safe-area-inset-left)</t>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">n’est pas une valeur de padding. Constant() n’est pas une fonction connue ou définie.</t>
   </si>
   <si>
-    <t xml:space="preserve">remplacer contant par la fonction env()</t>
-  </si>
-  <si>
     <t xml:space="preserve">bouton manquant ou html visible</t>
   </si>
   <si>
@@ -98,6 +95,27 @@
   </si>
   <si>
     <t xml:space="preserve">changer les couleurs et suppression de la taille de police</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">web.dev </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Textes sous forme d'image.</t>
@@ -417,13 +435,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A6099"/>
-      <name val="Arial"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -436,7 +448,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -499,7 +517,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -536,6 +554,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -544,11 +566,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,15 +582,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,7 +678,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -762,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -778,15 +800,15 @@
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>13</v>
@@ -813,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -825,23 +847,25 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="n">
         <v>4</v>
@@ -850,19 +874,19 @@
     </row>
     <row r="9" customFormat="false" ht="31.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="6"/>
@@ -875,13 +899,13 @@
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -906,13 +930,13 @@
       <c r="C11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="6"/>
@@ -942,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="6"/>
@@ -967,7 +991,7 @@
       <c r="E14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="6"/>
@@ -980,17 +1004,17 @@
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="6"/>
@@ -1017,7 +1041,7 @@
       <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1036,11 +1060,11 @@
       <c r="E17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1061,7 +1085,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1077,19 +1101,19 @@
       <c r="D19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>67</v>
@@ -1100,12 +1124,12 @@
       <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1116,12 +1140,12 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>71</v>
@@ -1129,15 +1153,15 @@
       <c r="C22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="17" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1148,12 +1172,12 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>75</v>
@@ -1169,41 +1193,45 @@
         <v>78</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="13" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1214,7 +1242,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1225,7 +1253,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1236,7 +1264,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1247,7 +1275,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1258,7 +1286,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1269,7 +1297,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="15"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1280,7 +1308,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="15"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1291,7 +1319,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1302,7 +1330,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1313,7 +1341,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1324,7 +1352,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="16"/>
       <c r="I37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1335,29 +1363,29 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="15"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H39" s="18"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H40" s="18"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H41" s="18"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H42" s="18"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H43" s="18"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H44" s="18"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H45" s="18"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
